--- a/flow_based_domain/ptdf_z_obs_means.xlsx
+++ b/flow_based_domain/ptdf_z_obs_means.xlsx
@@ -574,7 +574,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -25862,7 +25862,7 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -25920,7 +25920,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -25978,7 +25978,7 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26036,7 +26036,7 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26094,7 +26094,7 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26152,7 +26152,7 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26210,7 +26210,7 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26384,7 +26384,7 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26442,7 +26442,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26616,7 +26616,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26674,7 +26674,7 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26732,7 +26732,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26790,7 +26790,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26848,7 +26848,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26906,7 +26906,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -26964,7 +26964,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27022,7 +27022,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27080,7 +27080,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27138,7 +27138,7 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27196,7 +27196,7 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27312,7 +27312,7 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27370,7 +27370,7 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27428,7 +27428,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27602,7 +27602,7 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27660,7 +27660,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27718,7 +27718,7 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27776,7 +27776,7 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27834,7 +27834,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27892,7 +27892,7 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28008,7 +28008,7 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28066,7 +28066,7 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28124,7 +28124,7 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28414,7 +28414,7 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28472,7 +28472,7 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28530,7 +28530,7 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28646,7 +28646,7 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28704,7 +28704,7 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28762,7 +28762,7 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28878,7 +28878,7 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28936,7 +28936,7 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -28994,7 +28994,7 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29052,7 +29052,7 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29168,7 +29168,7 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29226,7 +29226,7 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29284,7 +29284,7 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29458,7 +29458,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29516,7 +29516,7 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29574,7 +29574,7 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29632,7 +29632,7 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29748,7 +29748,7 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29806,7 +29806,7 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29864,7 +29864,7 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29922,7 +29922,7 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -29980,7 +29980,7 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30038,7 +30038,7 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30096,7 +30096,7 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30154,7 +30154,7 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30212,7 +30212,7 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30270,7 +30270,7 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30328,7 +30328,7 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30502,7 +30502,7 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30560,7 +30560,7 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30618,7 +30618,7 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30676,7 +30676,7 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30734,7 +30734,7 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30792,7 +30792,7 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30850,7 +30850,7 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30908,7 +30908,7 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31024,7 +31024,7 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31082,7 +31082,7 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31140,7 +31140,7 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31198,7 +31198,7 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31256,7 +31256,7 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31314,7 +31314,7 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31372,7 +31372,7 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31430,7 +31430,7 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31488,7 +31488,7 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31546,7 +31546,7 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31604,7 +31604,7 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31662,7 +31662,7 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31720,7 +31720,7 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31778,7 +31778,7 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31836,7 +31836,7 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31894,7 +31894,7 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -31952,7 +31952,7 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32068,7 +32068,7 @@
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32126,7 +32126,7 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32184,7 +32184,7 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32242,7 +32242,7 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32300,7 +32300,7 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32358,7 +32358,7 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32416,7 +32416,7 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32474,7 +32474,7 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -32590,7 +32590,7 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46046,7 +46046,7 @@
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46104,7 +46104,7 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46162,7 +46162,7 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46220,7 +46220,7 @@
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46278,7 +46278,7 @@
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46336,7 +46336,7 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46394,7 +46394,7 @@
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46452,7 +46452,7 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46510,7 +46510,7 @@
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46568,7 +46568,7 @@
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46626,7 +46626,7 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46742,7 +46742,7 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46800,7 +46800,7 @@
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46858,7 +46858,7 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46916,7 +46916,7 @@
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -46974,7 +46974,7 @@
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47032,7 +47032,7 @@
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47090,7 +47090,7 @@
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47206,7 +47206,7 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47264,7 +47264,7 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47322,7 +47322,7 @@
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47380,7 +47380,7 @@
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
@@ -47438,7 +47438,7 @@
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DE_LU</t>
         </is>
       </c>
     </row>
